--- a/Code/02.AutosarRteACG/GenModel/Input_Data/dd.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/dd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\GenModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8707959-2279-40EA-976F-256E41B571CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B55D7-A6CA-46ED-A454-6F5EF0ACC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,13 +153,6 @@
   </si>
   <si>
     <t>SW</t>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf_eng_tra_rdctn_fail_stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,94 +160,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inv_device_vnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>can_gmlan_rx_trb_err_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf_aps_pos_eff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ubplcan_apcntl_inf_eng_tra_rdctn_fail_stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf_eng_trq_tcm_rqst_fail_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ubplcan_apcntl_inf_eng_trq_tcm_rqst_fail_stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf_trq_crnk_shft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>swplcan_apcntl_inf_trq_crnk_shft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf_tra_non_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf_aps_pos_pt_validity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubplcan_apcntl_inf_aps_pos_pt_validity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swbplcan_apcntl_inf_tra_non_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_trb_duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_trb_power_off_enb_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_trb_ctrl_enb_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_vnt_act_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbplcani_rx_trb_duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubplcani_rx_trb_power_off_enb_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubplcani_rx_trb_ctrl_enb_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uwplcani_rx_vnt_act_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uwplcani_rx_trb_err_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,32 +232,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>can_gmlan_rx_invalid_trb_duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_trb_power_off_enb_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_trb_ctrl_enb_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_vnt_act_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_trb_err_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inv_device_vnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ECM ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf_eng_torque_ret_dap</t>
+  </si>
+  <si>
+    <t>inf_eng_rpm_ret_dap</t>
+  </si>
+  <si>
+    <t>inf_ovrd_ctrl_mode_ret_dap</t>
   </si>
 </sst>
 </file>
@@ -383,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -393,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -822,8 +727,8 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>34</v>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -847,7 +752,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -865,16 +770,16 @@
         <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>41</v>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -894,7 +799,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -912,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>43</v>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -941,7 +846,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -959,664 +864,6 @@
         <v>32000</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>-4000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>8</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-32000</v>
-      </c>
-      <c r="S7" s="1">
-        <v>32000</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>-25</v>
-      </c>
-      <c r="G8" s="1">
-        <v>125</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>128</v>
-      </c>
-      <c r="R8" s="1">
-        <v>-3200</v>
-      </c>
-      <c r="S8" s="1">
-        <v>16000</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>-100</v>
-      </c>
-      <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-100</v>
-      </c>
-      <c r="S9" s="1">
-        <v>100</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>128</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>12800</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>65535</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>65535</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1687,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1708,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1725,13 +972,13 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
         <v>21</v>
@@ -1748,7 +995,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>-100</v>
@@ -1763,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1784,12 +1031,12 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1804,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1825,12 +1072,12 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1845,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1866,12 +1113,12 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1886,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1907,12 +1154,12 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1927,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1948,12 +1195,12 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1968,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1989,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Code/02.AutosarRteACG/GenModel/Input_Data/dd.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/dd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B55D7-A6CA-46ED-A454-6F5EF0ACC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883C2C1-E609-4C68-9C3D-9A5604D9E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>inf_ovrd_ctrl_mode_ret_dap</t>
+  </si>
+  <si>
+    <t>inv_device_vnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -291,13 +295,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,38 +618,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -690,11 +694,11 @@
       <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" t="s">
         <v>2</v>
       </c>
@@ -727,7 +731,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="1"/>
@@ -774,7 +778,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1"/>
@@ -821,7 +825,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="1"/>
@@ -865,6 +869,52 @@
       </c>
       <c r="T5" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -901,33 +951,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -960,11 +1010,11 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2" t="s">
         <v>2</v>
       </c>

--- a/Code/02.AutosarRteACG/GenModel/Input_Data/dd.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/dd.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883C2C1-E609-4C68-9C3D-9A5604D9E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4BDBA4-3DF7-4313-9C71-BE4D922C10D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
     <sheet name="ROM" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAM!$B$1:$B$91</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="144">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,38 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubplcan_apcntl_inf_eng_tra_rdctn_fail_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubplcan_apcntl_inf_eng_trq_tcm_rqst_fail_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swplcan_apcntl_inf_trq_crnk_shft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,60 +167,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_DUTY</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_POWER_OFF_ENB_STAT</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_CTRL_ENB_STAT</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_VNT_ACT_POS</t>
-  </si>
-  <si>
-    <t>K_CAN_ISOCAN_RX_DEFAULT_TRB_POWER_OFF_ENB_STAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_ISOCAN_RX_DEFAULT_TRB_CTRL_ENB_STAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_ISOCAN_RX_DEFAULT_VNT_ACT_POS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_ISOCAN_RX_DEFAULT_TRB_ERR_MSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_ERR_MSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_INVALID_SELECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_ISOCAN_RX_INVALID_SELECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ECM ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf_eng_torque_ret_dap</t>
-  </si>
-  <si>
-    <t>inf_eng_rpm_ret_dap</t>
-  </si>
-  <si>
-    <t>inf_ovrd_ctrl_mode_ret_dap</t>
-  </si>
-  <si>
     <t>inv_device_vnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_J1939_RX_DEFAULT_DRV_RETARDER_REQ</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_SG_UB</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ALTITUDE</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ANTENNA_STAT</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_DIRECTION</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_HDOP</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LATITUDE</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LONGITUDE</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_TIME</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_VEH_SPEED</t>
+  </si>
+  <si>
+    <t>UB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_ANMSIG_VCM_CAN02</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_direction</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_time</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_direction</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_time</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_direction</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_time</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_direction</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_time</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_rqst_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_rqstcan_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqstcan_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_veh_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_RQST_DRCT_2</t>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_2</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>UW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +525,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +549,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -285,17 +557,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,8 +600,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{9F3AEBD8-9188-422E-95ED-6AE241E2FF90}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,25 +880,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" topLeftCell="M73" workbookViewId="0">
+      <selection activeCell="T85" sqref="T85:T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37.75" bestFit="1" customWidth="1"/>
@@ -618,38 +914,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -680,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -694,11 +990,11 @@
       <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="O2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
       <c r="R2" t="s">
         <v>2</v>
       </c>
@@ -732,18 +1028,17 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>35</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>256</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -756,7 +1051,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -767,30 +1062,29 @@
       <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>256</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>256</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -799,11 +1093,8 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>35</v>
+      <c r="N4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -814,110 +1105,3679 @@
       <c r="Q4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>30</v>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>256</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>256</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>256</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>256</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>256</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>65535</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>65535</v>
+      </c>
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>65535</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>65535</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>65535</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>65535</v>
+      </c>
+      <c r="T9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>65535</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>65535</v>
+      </c>
+      <c r="T10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>10000000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10000000</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10000000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10000000</v>
+      </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>256</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>256</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>256</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>256</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>256</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>256</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>65535</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>65535</v>
+      </c>
+      <c r="T16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>65535</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>65535</v>
+      </c>
+      <c r="T17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>65535</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>65535</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>65535</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>65535</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10000000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10000000</v>
+      </c>
+      <c r="T20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10000000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10000000</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>256</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>256</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>256</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>256</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>256</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>256</v>
+      </c>
+      <c r="T24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>65535</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>65535</v>
+      </c>
+      <c r="T25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>65535</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>65535</v>
+      </c>
+      <c r="T26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>65535</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>65535</v>
+      </c>
+      <c r="T27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>65535</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>65535</v>
+      </c>
+      <c r="T28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>10000000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>10000000</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>10000000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>10000000</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>256</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>256</v>
+      </c>
+      <c r="T31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>256</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>256</v>
+      </c>
+      <c r="T32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>256</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>256</v>
+      </c>
+      <c r="T33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>65535</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>65535</v>
+      </c>
+      <c r="T34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>65535</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>65535</v>
+      </c>
+      <c r="T35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>65535</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>65535</v>
+      </c>
+      <c r="T36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>65535</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>65535</v>
+      </c>
+      <c r="T37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>10000000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>10000000</v>
+      </c>
+      <c r="T38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>10000000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>10000000</v>
+      </c>
+      <c r="T39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>256</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>256</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>256</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>256</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>256</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>256</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>65535</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>65535</v>
+      </c>
+      <c r="T43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>65535</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>65535</v>
+      </c>
+      <c r="T44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>65535</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>65535</v>
+      </c>
+      <c r="T45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>65535</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>65535</v>
+      </c>
+      <c r="T46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>10000000</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>10000000</v>
+      </c>
+      <c r="T47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>10000000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>10000000</v>
+      </c>
+      <c r="T48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>256</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>256</v>
+      </c>
+      <c r="T49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>256</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>256</v>
+      </c>
+      <c r="T50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>256</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>256</v>
+      </c>
+      <c r="T51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>65535</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>65535</v>
+      </c>
+      <c r="T52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>65535</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>65535</v>
+      </c>
+      <c r="T53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>65535</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>65535</v>
+      </c>
+      <c r="T54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>65535</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>65535</v>
+      </c>
+      <c r="T55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>10000000</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>10000000</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>10000000</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>10000000</v>
+      </c>
+      <c r="T57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>256</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>256</v>
+      </c>
+      <c r="T58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>256</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>256</v>
+      </c>
+      <c r="T59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>256</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>256</v>
+      </c>
+      <c r="T60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>65535</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>65535</v>
+      </c>
+      <c r="T61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>65535</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>65535</v>
+      </c>
+      <c r="T62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>65535</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>65535</v>
+      </c>
+      <c r="T63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>65535</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>65535</v>
+      </c>
+      <c r="T64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>10000000</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>10000000</v>
+      </c>
+      <c r="T65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>10000000</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>10000000</v>
+      </c>
+      <c r="T66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>256</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>256</v>
+      </c>
+      <c r="T67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>256</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>256</v>
+      </c>
+      <c r="T68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>256</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>256</v>
+      </c>
+      <c r="T69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>65535</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>65535</v>
+      </c>
+      <c r="T70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>65535</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>65535</v>
+      </c>
+      <c r="T71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>65535</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>65535</v>
+      </c>
+      <c r="T72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>65535</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>65535</v>
+      </c>
+      <c r="T73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>10000000</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>10000000</v>
+      </c>
+      <c r="T74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>10000000</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>10000000</v>
+      </c>
+      <c r="T75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>256</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>256</v>
+      </c>
+      <c r="T76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>-4000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>8</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-32000</v>
-      </c>
-      <c r="S5" s="1">
-        <v>32000</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>30</v>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>256</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>256</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>256</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>256</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>256</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>256</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>256</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>256</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>256</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>256</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>256</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>256</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>256</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>256</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>65535</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>65535</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="Y1:AA1"/>
@@ -932,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B985C-CC1A-48EC-9D34-7F9A2AD556C1}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="K14" sqref="K14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,40 +4811,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1005,16 +4865,16 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
       <c r="N2" t="s">
         <v>2</v>
       </c>
@@ -1022,13 +4882,13 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
         <v>21</v>
@@ -1045,13 +4905,13 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1060,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1072,27 +4932,27 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1101,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1116,24 +4976,24 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1142,48 +5002,48 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>256</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="G6">
-        <v>7.8125E-3</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1192,24 +5052,24 @@
         <v>27</v>
       </c>
       <c r="M6">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12800</v>
+        <v>256</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1224,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1245,18 +5105,18 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>65535</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1265,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1280,13 +5140,294 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>65535</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>65535</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>65535</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10000000</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>10000000</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10000000</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10000000</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>65535</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>65535</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>65535</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>65535</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
